--- a/RAW2/Traits abeilles/Traits bees.xlsx
+++ b/RAW2/Traits abeilles/Traits bees.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="11_26DFE13EC1924C8479517D75EB284BCBC10CFBD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B4F63F-EF3F-4419-921B-486B6B4DC65C}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="1335" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nbr_sp_by_site.xls" sheetId="2" r:id="rId1"/>
@@ -2112,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590E1CBD-B978-4295-A07A-C6CF91EE0F6B}">
   <dimension ref="A1:D332"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5794,9 +5794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H180" sqref="H180:H183"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/RAW2/Traits abeilles/Traits bees.xlsx
+++ b/RAW2/Traits abeilles/Traits bees.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW2/Traits abeilles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_26DFE13EC1924C8479517D75EB284BCBC10CFBD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B4F63F-EF3F-4419-921B-486B6B4DC65C}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_26DFE13EC1924C8479517D75EB284BCBC10CFBD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6F2CA0-F0DD-4A92-9654-5CD547E1E185}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nbr_sp_by_site.xls" sheetId="2" r:id="rId1"/>
     <sheet name="main" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">main!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">main!$A$1:$T$183</definedName>
     <definedName name="nbr_sp_by_site.xls">nbr_sp_by_site.xls!$A$1:$C$332</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2112,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590E1CBD-B978-4295-A07A-C6CF91EE0F6B}">
   <dimension ref="A1:D332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -5792,11 +5792,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157:XFD157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5895,7 +5896,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -5966,7 +5967,7 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
     </row>
-    <row r="3" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -6039,7 +6040,7 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
     </row>
-    <row r="4" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -6110,7 +6111,7 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
     </row>
-    <row r="5" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -6181,7 +6182,7 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
     </row>
-    <row r="6" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -6252,7 +6253,7 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
     </row>
-    <row r="7" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -6323,7 +6324,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
     </row>
-    <row r="8" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -6394,7 +6395,7 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
     </row>
-    <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -6465,7 +6466,7 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
     </row>
-    <row r="10" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -6536,7 +6537,7 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -6607,7 +6608,7 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
     </row>
-    <row r="12" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -6680,7 +6681,7 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -6751,7 +6752,7 @@
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
     </row>
-    <row r="14" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>82</v>
       </c>
@@ -6824,7 +6825,7 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
     </row>
-    <row r="15" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -6897,7 +6898,7 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
     </row>
-    <row r="16" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>90</v>
       </c>
@@ -6968,7 +6969,7 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
     </row>
-    <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -7039,7 +7040,7 @@
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
     </row>
-    <row r="18" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
@@ -7112,7 +7113,7 @@
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
     </row>
-    <row r="19" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
@@ -7185,7 +7186,7 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
     </row>
-    <row r="20" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>105</v>
       </c>
@@ -7256,7 +7257,7 @@
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
     </row>
-    <row r="21" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>109</v>
       </c>
@@ -7327,7 +7328,7 @@
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>113</v>
       </c>
@@ -7398,7 +7399,7 @@
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
     </row>
-    <row r="23" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>117</v>
       </c>
@@ -7471,7 +7472,7 @@
       <c r="AD23" s="8"/>
       <c r="AE23" s="8"/>
     </row>
-    <row r="24" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>121</v>
       </c>
@@ -7542,7 +7543,7 @@
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
     </row>
-    <row r="25" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>125</v>
       </c>
@@ -7613,7 +7614,7 @@
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
     </row>
-    <row r="26" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>129</v>
       </c>
@@ -7686,7 +7687,7 @@
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
     </row>
-    <row r="27" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>135</v>
       </c>
@@ -7759,7 +7760,7 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
     </row>
-    <row r="28" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>137</v>
       </c>
@@ -7822,7 +7823,7 @@
       <c r="AD28" s="16"/>
       <c r="AE28" s="16"/>
     </row>
-    <row r="29" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -7895,7 +7896,7 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
     </row>
-    <row r="30" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>143</v>
       </c>
@@ -7966,7 +7967,7 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
     </row>
-    <row r="31" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>146</v>
       </c>
@@ -8039,7 +8040,7 @@
       <c r="AD31" s="8"/>
       <c r="AE31" s="8"/>
     </row>
-    <row r="32" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>150</v>
       </c>
@@ -8112,7 +8113,7 @@
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
     </row>
-    <row r="33" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>154</v>
       </c>
@@ -8183,7 +8184,7 @@
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
     </row>
-    <row r="34" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>158</v>
       </c>
@@ -8254,7 +8255,7 @@
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
     </row>
-    <row r="35" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>162</v>
       </c>
@@ -8327,7 +8328,7 @@
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
     </row>
-    <row r="36" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>165</v>
       </c>
@@ -8400,7 +8401,7 @@
       <c r="AD36" s="8"/>
       <c r="AE36" s="8"/>
     </row>
-    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>166</v>
       </c>
@@ -8473,7 +8474,7 @@
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
     </row>
-    <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>169</v>
       </c>
@@ -8617,7 +8618,7 @@
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
     </row>
-    <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>182</v>
       </c>
@@ -8690,7 +8691,7 @@
       <c r="AD40" s="8"/>
       <c r="AE40" s="8"/>
     </row>
-    <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>187</v>
       </c>
@@ -8761,7 +8762,7 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
     </row>
-    <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>190</v>
       </c>
@@ -8834,7 +8835,7 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>193</v>
       </c>
@@ -8905,7 +8906,7 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>198</v>
       </c>
@@ -8978,7 +8979,7 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>201</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>205</v>
       </c>
@@ -9191,7 +9192,7 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>213</v>
       </c>
@@ -9262,7 +9263,7 @@
       <c r="AD48" s="8"/>
       <c r="AE48" s="8"/>
     </row>
-    <row r="49" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>215</v>
       </c>
@@ -9406,7 +9407,7 @@
       <c r="AD50" s="8"/>
       <c r="AE50" s="8"/>
     </row>
-    <row r="51" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>223</v>
       </c>
@@ -9550,7 +9551,7 @@
       <c r="AD52" s="8"/>
       <c r="AE52" s="8"/>
     </row>
-    <row r="53" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>229</v>
       </c>
@@ -9621,7 +9622,7 @@
       <c r="AD53" s="8"/>
       <c r="AE53" s="8"/>
     </row>
-    <row r="54" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>232</v>
       </c>
@@ -9692,7 +9693,7 @@
       <c r="AD54" s="8"/>
       <c r="AE54" s="8"/>
     </row>
-    <row r="55" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>234</v>
       </c>
@@ -9763,7 +9764,7 @@
       <c r="AD55" s="8"/>
       <c r="AE55" s="8"/>
     </row>
-    <row r="56" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>238</v>
       </c>
@@ -9976,7 +9977,7 @@
       <c r="AD58" s="8"/>
       <c r="AE58" s="8"/>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>246</v>
       </c>
@@ -10266,7 +10267,7 @@
       <c r="AD62" s="8"/>
       <c r="AE62" s="8"/>
     </row>
-    <row r="63" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>258</v>
       </c>
@@ -10337,7 +10338,7 @@
       <c r="AD63" s="8"/>
       <c r="AE63" s="8"/>
     </row>
-    <row r="64" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>260</v>
       </c>
@@ -10408,7 +10409,7 @@
       <c r="AD64" s="8"/>
       <c r="AE64" s="8"/>
     </row>
-    <row r="65" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>264</v>
       </c>
@@ -10479,7 +10480,7 @@
       <c r="AD65" s="8"/>
       <c r="AE65" s="8"/>
     </row>
-    <row r="66" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>268</v>
       </c>
@@ -10550,7 +10551,7 @@
       <c r="AD66" s="8"/>
       <c r="AE66" s="8"/>
     </row>
-    <row r="67" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>271</v>
       </c>
@@ -10623,7 +10624,7 @@
       <c r="AD67" s="8"/>
       <c r="AE67" s="8"/>
     </row>
-    <row r="68" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>275</v>
       </c>
@@ -10696,7 +10697,7 @@
       <c r="AD68" s="8"/>
       <c r="AE68" s="8"/>
     </row>
-    <row r="69" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>281</v>
       </c>
@@ -10767,7 +10768,7 @@
       <c r="AD69" s="8"/>
       <c r="AE69" s="8"/>
     </row>
-    <row r="70" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>283</v>
       </c>
@@ -10840,7 +10841,7 @@
       <c r="AD70" s="8"/>
       <c r="AE70" s="8"/>
     </row>
-    <row r="71" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>285</v>
       </c>
@@ -10913,7 +10914,7 @@
       <c r="AD71" s="8"/>
       <c r="AE71" s="8"/>
     </row>
-    <row r="72" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>287</v>
       </c>
@@ -10986,7 +10987,7 @@
       <c r="AD72" s="8"/>
       <c r="AE72" s="8"/>
     </row>
-    <row r="73" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>291</v>
       </c>
@@ -11059,7 +11060,7 @@
       <c r="AD73" s="8"/>
       <c r="AE73" s="8"/>
     </row>
-    <row r="74" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>293</v>
       </c>
@@ -11130,7 +11131,7 @@
       <c r="AD74" s="8"/>
       <c r="AE74" s="8"/>
     </row>
-    <row r="75" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>296</v>
       </c>
@@ -11203,7 +11204,7 @@
       <c r="AD75" s="8"/>
       <c r="AE75" s="8"/>
     </row>
-    <row r="76" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>299</v>
       </c>
@@ -11274,7 +11275,7 @@
       <c r="AD76" s="8"/>
       <c r="AE76" s="8"/>
     </row>
-    <row r="77" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>301</v>
       </c>
@@ -11345,7 +11346,7 @@
       <c r="AD77" s="8"/>
       <c r="AE77" s="8"/>
     </row>
-    <row r="78" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>303</v>
       </c>
@@ -11562,7 +11563,7 @@
       <c r="AD80" s="8"/>
       <c r="AE80" s="8"/>
     </row>
-    <row r="81" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>312</v>
       </c>
@@ -11633,7 +11634,7 @@
       <c r="AD81" s="8"/>
       <c r="AE81" s="8"/>
     </row>
-    <row r="82" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>314</v>
       </c>
@@ -11706,7 +11707,7 @@
       <c r="AD82" s="8"/>
       <c r="AE82" s="8"/>
     </row>
-    <row r="83" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>317</v>
       </c>
@@ -11779,7 +11780,7 @@
       <c r="AD83" s="8"/>
       <c r="AE83" s="8"/>
     </row>
-    <row r="84" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>319</v>
       </c>
@@ -11850,7 +11851,7 @@
       <c r="AD84" s="8"/>
       <c r="AE84" s="8"/>
     </row>
-    <row r="85" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>322</v>
       </c>
@@ -11921,7 +11922,7 @@
       <c r="AD85" s="8"/>
       <c r="AE85" s="8"/>
     </row>
-    <row r="86" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>325</v>
       </c>
@@ -11992,7 +11993,7 @@
       <c r="AD86" s="8"/>
       <c r="AE86" s="8"/>
     </row>
-    <row r="87" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>326</v>
       </c>
@@ -12134,7 +12135,7 @@
       <c r="AD88" s="8"/>
       <c r="AE88" s="8"/>
     </row>
-    <row r="89" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>331</v>
       </c>
@@ -12205,7 +12206,7 @@
       <c r="AD89" s="8"/>
       <c r="AE89" s="8"/>
     </row>
-    <row r="90" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>335</v>
       </c>
@@ -12276,7 +12277,7 @@
       <c r="AD90" s="8"/>
       <c r="AE90" s="8"/>
     </row>
-    <row r="91" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>336</v>
       </c>
@@ -12347,7 +12348,7 @@
       <c r="AD91" s="8"/>
       <c r="AE91" s="8"/>
     </row>
-    <row r="92" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>339</v>
       </c>
@@ -12418,7 +12419,7 @@
       <c r="AD92" s="8"/>
       <c r="AE92" s="8"/>
     </row>
-    <row r="93" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>342</v>
       </c>
@@ -12560,7 +12561,7 @@
       <c r="AD94" s="8"/>
       <c r="AE94" s="8"/>
     </row>
-    <row r="95" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>347</v>
       </c>
@@ -12704,7 +12705,7 @@
       <c r="AD96" s="8"/>
       <c r="AE96" s="8"/>
     </row>
-    <row r="97" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>355</v>
       </c>
@@ -12775,7 +12776,7 @@
       <c r="AD97" s="8"/>
       <c r="AE97" s="8"/>
     </row>
-    <row r="98" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>357</v>
       </c>
@@ -12846,7 +12847,7 @@
       <c r="AD98" s="8"/>
       <c r="AE98" s="8"/>
     </row>
-    <row r="99" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>360</v>
       </c>
@@ -12917,7 +12918,7 @@
       <c r="AD99" s="8"/>
       <c r="AE99" s="8"/>
     </row>
-    <row r="100" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>364</v>
       </c>
@@ -12988,7 +12989,7 @@
       <c r="AD100" s="8"/>
       <c r="AE100" s="8"/>
     </row>
-    <row r="101" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>366</v>
       </c>
@@ -13059,7 +13060,7 @@
       <c r="AD101" s="8"/>
       <c r="AE101" s="8"/>
     </row>
-    <row r="102" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>368</v>
       </c>
@@ -13130,7 +13131,7 @@
       <c r="AD102" s="8"/>
       <c r="AE102" s="8"/>
     </row>
-    <row r="103" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>371</v>
       </c>
@@ -13201,7 +13202,7 @@
       <c r="AD103" s="8"/>
       <c r="AE103" s="8"/>
     </row>
-    <row r="104" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>373</v>
       </c>
@@ -13272,7 +13273,7 @@
       <c r="AD104" s="8"/>
       <c r="AE104" s="8"/>
     </row>
-    <row r="105" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>375</v>
       </c>
@@ -13343,7 +13344,7 @@
       <c r="AD105" s="8"/>
       <c r="AE105" s="8"/>
     </row>
-    <row r="106" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>379</v>
       </c>
@@ -13414,7 +13415,7 @@
       <c r="AD106" s="8"/>
       <c r="AE106" s="8"/>
     </row>
-    <row r="107" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>381</v>
       </c>
@@ -13485,7 +13486,7 @@
       <c r="AD107" s="8"/>
       <c r="AE107" s="8"/>
     </row>
-    <row r="108" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>385</v>
       </c>
@@ -13556,7 +13557,7 @@
       <c r="AD108" s="8"/>
       <c r="AE108" s="8"/>
     </row>
-    <row r="109" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>387</v>
       </c>
@@ -13627,7 +13628,7 @@
       <c r="AD109" s="8"/>
       <c r="AE109" s="8"/>
     </row>
-    <row r="110" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>389</v>
       </c>
@@ -13698,7 +13699,7 @@
       <c r="AD110" s="8"/>
       <c r="AE110" s="8"/>
     </row>
-    <row r="111" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>393</v>
       </c>
@@ -13769,7 +13770,7 @@
       <c r="AD111" s="8"/>
       <c r="AE111" s="8"/>
     </row>
-    <row r="112" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>394</v>
       </c>
@@ -13840,7 +13841,7 @@
       <c r="AD112" s="8"/>
       <c r="AE112" s="8"/>
     </row>
-    <row r="113" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>396</v>
       </c>
@@ -13911,7 +13912,7 @@
       <c r="AD113" s="8"/>
       <c r="AE113" s="8"/>
     </row>
-    <row r="114" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>398</v>
       </c>
@@ -13982,7 +13983,7 @@
       <c r="AD114" s="8"/>
       <c r="AE114" s="8"/>
     </row>
-    <row r="115" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>400</v>
       </c>
@@ -14053,7 +14054,7 @@
       <c r="AD115" s="8"/>
       <c r="AE115" s="8"/>
     </row>
-    <row r="116" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>402</v>
       </c>
@@ -14124,7 +14125,7 @@
       <c r="AD116" s="8"/>
       <c r="AE116" s="8"/>
     </row>
-    <row r="117" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>406</v>
       </c>
@@ -14197,7 +14198,7 @@
       <c r="AD117" s="8"/>
       <c r="AE117" s="8"/>
     </row>
-    <row r="118" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>412</v>
       </c>
@@ -14341,7 +14342,7 @@
       <c r="AD119" s="8"/>
       <c r="AE119" s="8"/>
     </row>
-    <row r="120" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>418</v>
       </c>
@@ -14412,7 +14413,7 @@
       <c r="AD120" s="8"/>
       <c r="AE120" s="8"/>
     </row>
-    <row r="121" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>421</v>
       </c>
@@ -14485,7 +14486,7 @@
       <c r="AD121" s="8"/>
       <c r="AE121" s="8"/>
     </row>
-    <row r="122" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>425</v>
       </c>
@@ -14629,7 +14630,7 @@
       <c r="AD123" s="8"/>
       <c r="AE123" s="8"/>
     </row>
-    <row r="124" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>428</v>
       </c>
@@ -14700,7 +14701,7 @@
       <c r="AD124" s="8"/>
       <c r="AE124" s="8"/>
     </row>
-    <row r="125" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>429</v>
       </c>
@@ -14842,7 +14843,7 @@
       <c r="AD126" s="8"/>
       <c r="AE126" s="8"/>
     </row>
-    <row r="127" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>434</v>
       </c>
@@ -14913,7 +14914,7 @@
       <c r="AD127" s="8"/>
       <c r="AE127" s="8"/>
     </row>
-    <row r="128" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>436</v>
       </c>
@@ -14984,7 +14985,7 @@
       <c r="AD128" s="8"/>
       <c r="AE128" s="8"/>
     </row>
-    <row r="129" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>437</v>
       </c>
@@ -15057,7 +15058,7 @@
       <c r="AD129" s="8"/>
       <c r="AE129" s="8"/>
     </row>
-    <row r="130" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>439</v>
       </c>
@@ -15130,7 +15131,7 @@
       <c r="AD130" s="8"/>
       <c r="AE130" s="8"/>
     </row>
-    <row r="131" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>442</v>
       </c>
@@ -15203,7 +15204,7 @@
       <c r="AD131" s="8"/>
       <c r="AE131" s="8"/>
     </row>
-    <row r="132" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>445</v>
       </c>
@@ -15274,7 +15275,7 @@
       <c r="AD132" s="8"/>
       <c r="AE132" s="8"/>
     </row>
-    <row r="133" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>448</v>
       </c>
@@ -15345,7 +15346,7 @@
       <c r="AD133" s="8"/>
       <c r="AE133" s="8"/>
     </row>
-    <row r="134" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>451</v>
       </c>
@@ -15416,7 +15417,7 @@
       <c r="AD134" s="8"/>
       <c r="AE134" s="8"/>
     </row>
-    <row r="135" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>453</v>
       </c>
@@ -15487,7 +15488,7 @@
       <c r="AD135" s="8"/>
       <c r="AE135" s="8"/>
     </row>
-    <row r="136" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>455</v>
       </c>
@@ -15558,7 +15559,7 @@
       <c r="AD136" s="8"/>
       <c r="AE136" s="8"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>457</v>
       </c>
@@ -15629,7 +15630,7 @@
       <c r="AD137" s="8"/>
       <c r="AE137" s="8"/>
     </row>
-    <row r="138" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>461</v>
       </c>
@@ -15700,7 +15701,7 @@
       <c r="AD138" s="8"/>
       <c r="AE138" s="8"/>
     </row>
-    <row r="139" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>463</v>
       </c>
@@ -15771,7 +15772,7 @@
       <c r="AD139" s="8"/>
       <c r="AE139" s="8"/>
     </row>
-    <row r="140" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>465</v>
       </c>
@@ -15842,7 +15843,7 @@
       <c r="AD140" s="8"/>
       <c r="AE140" s="8"/>
     </row>
-    <row r="141" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>466</v>
       </c>
@@ -15913,7 +15914,7 @@
       <c r="AD141" s="8"/>
       <c r="AE141" s="8"/>
     </row>
-    <row r="142" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>469</v>
       </c>
@@ -15984,7 +15985,7 @@
       <c r="AD142" s="8"/>
       <c r="AE142" s="8"/>
     </row>
-    <row r="143" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>471</v>
       </c>
@@ -16055,7 +16056,7 @@
       <c r="AD143" s="8"/>
       <c r="AE143" s="8"/>
     </row>
-    <row r="144" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>474</v>
       </c>
@@ -16126,7 +16127,7 @@
       <c r="AD144" s="8"/>
       <c r="AE144" s="8"/>
     </row>
-    <row r="145" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>477</v>
       </c>
@@ -16197,7 +16198,7 @@
       <c r="AD145" s="8"/>
       <c r="AE145" s="8"/>
     </row>
-    <row r="146" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>479</v>
       </c>
@@ -16268,7 +16269,7 @@
       <c r="AD146" s="8"/>
       <c r="AE146" s="8"/>
     </row>
-    <row r="147" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>482</v>
       </c>
@@ -16339,7 +16340,7 @@
       <c r="AD147" s="8"/>
       <c r="AE147" s="8"/>
     </row>
-    <row r="148" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>483</v>
       </c>
@@ -16410,7 +16411,7 @@
       <c r="AD148" s="8"/>
       <c r="AE148" s="8"/>
     </row>
-    <row r="149" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>485</v>
       </c>
@@ -16481,7 +16482,7 @@
       <c r="AD149" s="8"/>
       <c r="AE149" s="8"/>
     </row>
-    <row r="150" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>487</v>
       </c>
@@ -16552,7 +16553,7 @@
       <c r="AD150" s="8"/>
       <c r="AE150" s="8"/>
     </row>
-    <row r="151" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>489</v>
       </c>
@@ -16623,7 +16624,7 @@
       <c r="AD151" s="8"/>
       <c r="AE151" s="8"/>
     </row>
-    <row r="152" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>491</v>
       </c>
@@ -16694,7 +16695,7 @@
       <c r="AD152" s="8"/>
       <c r="AE152" s="8"/>
     </row>
-    <row r="153" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>494</v>
       </c>
@@ -16767,7 +16768,7 @@
       <c r="AD153" s="8"/>
       <c r="AE153" s="8"/>
     </row>
-    <row r="154" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>497</v>
       </c>
@@ -16838,7 +16839,7 @@
       <c r="AD154" s="8"/>
       <c r="AE154" s="8"/>
     </row>
-    <row r="155" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>499</v>
       </c>
@@ -17199,7 +17200,7 @@
       <c r="AD159" s="8"/>
       <c r="AE159" s="8"/>
     </row>
-    <row r="160" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>511</v>
       </c>
@@ -17272,7 +17273,7 @@
       <c r="AD160" s="8"/>
       <c r="AE160" s="8"/>
     </row>
-    <row r="161" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>513</v>
       </c>
@@ -17345,7 +17346,7 @@
       <c r="AD161" s="8"/>
       <c r="AE161" s="8"/>
     </row>
-    <row r="162" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>516</v>
       </c>
@@ -17416,7 +17417,7 @@
       <c r="AD162" s="8"/>
       <c r="AE162" s="8"/>
     </row>
-    <row r="163" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>519</v>
       </c>
@@ -17487,7 +17488,7 @@
       <c r="AD163" s="8"/>
       <c r="AE163" s="8"/>
     </row>
-    <row r="164" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>520</v>
       </c>
@@ -17558,7 +17559,7 @@
       <c r="AD164" s="8"/>
       <c r="AE164" s="8"/>
     </row>
-    <row r="165" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>523</v>
       </c>
@@ -17629,7 +17630,7 @@
       <c r="AD165" s="8"/>
       <c r="AE165" s="8"/>
     </row>
-    <row r="166" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>524</v>
       </c>
@@ -17700,7 +17701,7 @@
       <c r="AD166" s="8"/>
       <c r="AE166" s="8"/>
     </row>
-    <row r="167" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>526</v>
       </c>
@@ -17771,7 +17772,7 @@
       <c r="AD167" s="8"/>
       <c r="AE167" s="8"/>
     </row>
-    <row r="168" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>527</v>
       </c>
@@ -17842,7 +17843,7 @@
       <c r="AD168" s="8"/>
       <c r="AE168" s="8"/>
     </row>
-    <row r="169" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>529</v>
       </c>
@@ -17913,7 +17914,7 @@
       <c r="AD169" s="8"/>
       <c r="AE169" s="8"/>
     </row>
-    <row r="170" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>530</v>
       </c>
@@ -17984,7 +17985,7 @@
       <c r="AD170" s="8"/>
       <c r="AE170" s="8"/>
     </row>
-    <row r="171" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>532</v>
       </c>
@@ -18055,7 +18056,7 @@
       <c r="AD171" s="8"/>
       <c r="AE171" s="8"/>
     </row>
-    <row r="172" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>535</v>
       </c>
@@ -18126,7 +18127,7 @@
       <c r="AD172" s="8"/>
       <c r="AE172" s="8"/>
     </row>
-    <row r="173" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>536</v>
       </c>
@@ -18197,7 +18198,7 @@
       <c r="AD173" s="8"/>
       <c r="AE173" s="8"/>
     </row>
-    <row r="174" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>537</v>
       </c>
@@ -18268,7 +18269,7 @@
       <c r="AD174" s="8"/>
       <c r="AE174" s="8"/>
     </row>
-    <row r="175" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>539</v>
       </c>
@@ -18339,7 +18340,7 @@
       <c r="AD175" s="8"/>
       <c r="AE175" s="8"/>
     </row>
-    <row r="176" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>541</v>
       </c>
@@ -18410,7 +18411,7 @@
       <c r="AD176" s="8"/>
       <c r="AE176" s="8"/>
     </row>
-    <row r="177" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>544</v>
       </c>
@@ -18767,7 +18768,7 @@
       <c r="AD181" s="19"/>
       <c r="AE181" s="19"/>
     </row>
-    <row r="182" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>552</v>
       </c>
@@ -18840,7 +18841,7 @@
       <c r="AD182" s="8"/>
       <c r="AE182" s="8"/>
     </row>
-    <row r="183" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>555</v>
       </c>
@@ -24631,7 +24632,13 @@
       <c r="I1000" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T183" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Cavities"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
